--- a/src/Data/Scalability/DStream/DStream-ThroughputGain.xlsx
+++ b/src/Data/Scalability/DStream/DStream-ThroughputGain.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kk/Documents/ISCAS/StreamingML/document/clustering/streamclustering/TestResult/pic/0528ClusTreeDStream/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kk/Repositories/PythonGraph/src/Data/Scalability/DStream/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="39960" yWindow="1880" windowWidth="24380" windowHeight="15000"/>
+    <workbookView xWindow="39620" yWindow="1880" windowWidth="24380" windowHeight="15000"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -32,18 +32,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
-    <t>KDD99</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CoverType</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>KDD98</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>p=1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -65,6 +53,18 @@
   </si>
   <si>
     <t>p=32</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>large-KDD99</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>large-CoverType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>large-KDD98</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -488,25 +488,30 @@
   <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="13.5" customWidth="1"/>
+    <col min="3" max="3" width="15.5" customWidth="1"/>
+    <col min="4" max="4" width="12.33203125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C1" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D1" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -520,7 +525,7 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B3">
         <v>1.6888764066706696</v>
@@ -534,7 +539,7 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B4">
         <v>3.2410660675201921</v>
@@ -548,7 +553,7 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B5">
         <v>4.8442154603033183</v>
@@ -562,7 +567,7 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B6">
         <v>5.2815278235100429</v>
@@ -576,7 +581,7 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B7">
         <v>5.6594162195665225</v>
